--- a/query5.xlsx
+++ b/query5.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>212</v>
+        <v>612</v>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
